--- a/data/raw/comptages_terrain/plaisance/us_med_pnmcca_observatoire_comptage_terrain_plaisance_2020-08-13.xlsx
+++ b/data/raw/comptages_terrain/plaisance/us_med_pnmcca_observatoire_comptage_terrain_plaisance_2020-08-13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="6" r:id="rId1"/>
@@ -1241,15 +1241,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="13.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="11.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="17.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="18.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
